--- a/Team-Data/2012-13/12-3-2012-13.xlsx
+++ b/Team-Data/2012-13/12-3-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -753,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
@@ -768,10 +835,10 @@
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>8</v>
@@ -789,22 +856,22 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -816,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -956,13 +1023,13 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>6</v>
@@ -1120,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1129,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1138,10 +1205,10 @@
         <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>14</v>
@@ -1156,10 +1223,10 @@
         <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>4</v>
@@ -1180,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="H5" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.415</v>
+        <v>0.411</v>
       </c>
       <c r="L5" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.341</v>
+        <v>0.327</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
         <v>0.78</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>18.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X5" t="n">
         <v>7.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
         <v>20</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-5.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1308,37 +1375,37 @@
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
         <v>17</v>
       </c>
-      <c r="AM5" t="n">
-        <v>15</v>
-      </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
         <v>5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR5" t="n">
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>29</v>
@@ -1350,22 +1417,22 @@
         <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1493,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1505,10 +1572,10 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1529,7 +1596,7 @@
         <v>21</v>
       </c>
       <c r="AW6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>16</v>
@@ -1541,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -1576,142 +1643,142 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.222</v>
+        <v>0.235</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>85.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.418</v>
+        <v>0.423</v>
       </c>
       <c r="L7" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="M7" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.365</v>
       </c>
       <c r="O7" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="R7" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>20</v>
+      </c>
+      <c r="V7" t="n">
         <v>16.5</v>
       </c>
-      <c r="P7" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R7" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="U7" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.2</v>
-      </c>
       <c r="W7" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.3</v>
+        <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
         <v>27</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>29</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
       </c>
       <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN7" t="n">
         <v>14</v>
       </c>
-      <c r="AI7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
         <v>24</v>
       </c>
       <c r="AR7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,13 +1790,13 @@
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>-1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
         <v>16</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
@@ -1854,13 +1921,13 @@
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>10</v>
@@ -1869,13 +1936,13 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1887,10 +1954,10 @@
         <v>20</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW8" t="n">
         <v>18</v>
@@ -1899,19 +1966,19 @@
         <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1961,100 +2028,100 @@
         <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.332</v>
+        <v>0.329</v>
       </c>
       <c r="O9" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="R9" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="S9" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T9" t="n">
-        <v>46.7</v>
+        <v>46.3</v>
       </c>
       <c r="U9" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V9" t="n">
         <v>16.4</v>
       </c>
       <c r="W9" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z9" t="n">
         <v>19.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG9" t="n">
         <v>16</v>
       </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
         <v>29</v>
@@ -2069,13 +2136,13 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>7</v>
@@ -2087,13 +2154,13 @@
         <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
         <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.316</v>
+        <v>0.278</v>
       </c>
       <c r="H10" t="n">
         <v>48</v>
@@ -2140,64 +2207,64 @@
         <v>35.1</v>
       </c>
       <c r="J10" t="n">
-        <v>79.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.441</v>
       </c>
       <c r="L10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M10" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.361</v>
+        <v>0.37</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P10" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R10" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>41.9</v>
+        <v>41.5</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W10" t="n">
         <v>6.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
         <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2221,22 +2288,22 @@
         <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM10" t="n">
         <v>27</v>
       </c>
       <c r="AN10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO10" t="n">
         <v>14</v>
       </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>25</v>
@@ -2245,34 +2312,34 @@
         <v>17</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU10" t="n">
         <v>20</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>11</v>
       </c>
       <c r="BB10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.588</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
         <v>48.9</v>
@@ -2322,7 +2389,7 @@
         <v>37.3</v>
       </c>
       <c r="J11" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.452</v>
@@ -2331,73 +2398,73 @@
         <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O11" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P11" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S11" t="n">
         <v>33.6</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V11" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" t="n">
         <v>8</v>
       </c>
-      <c r="AF11" t="n">
-        <v>9</v>
-      </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2406,19 +2473,19 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
         <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>16</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>15</v>
@@ -2454,10 +2521,10 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -2564,28 +2631,28 @@
         <v>1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
         <v>14</v>
       </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
         <v>4</v>
@@ -2615,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>-1.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
         <v>16</v>
       </c>
-      <c r="AG13" t="n">
-        <v>17</v>
-      </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,22 +2834,22 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
         <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2800,10 +2867,10 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.647</v>
+        <v>0.625</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J14" t="n">
-        <v>79.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
         <v>19.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
         <v>17.9</v>
@@ -2889,76 +2956,76 @@
         <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R14" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S14" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="T14" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="U14" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V14" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="X14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y14" t="n">
         <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2973,16 +3040,16 @@
         <v>23</v>
       </c>
       <c r="AS14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT14" t="n">
         <v>24</v>
       </c>
-      <c r="AT14" t="n">
-        <v>25</v>
-      </c>
       <c r="AU14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,13 +3061,13 @@
         <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>3.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
         <v>16</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3134,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="AL15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3167,7 +3234,7 @@
         <v>30</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3182,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3319,16 +3386,16 @@
         <v>24</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
       </c>
       <c r="AP16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3343,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>8</v>
@@ -3355,7 +3422,7 @@
         <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
         <v>22</v>
@@ -3364,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3492,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
         <v>1</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3540,10 +3607,10 @@
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>2</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -3578,115 +3645,115 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.3</v>
+        <v>38.9</v>
       </c>
       <c r="J18" t="n">
-        <v>86.3</v>
+        <v>87</v>
       </c>
       <c r="K18" t="n">
-        <v>0.443</v>
+        <v>0.447</v>
       </c>
       <c r="L18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="P18" t="n">
         <v>18.3</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="O18" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="P18" t="n">
-        <v>18.6</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0.745</v>
+        <v>0.753</v>
       </c>
       <c r="R18" t="n">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="S18" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
         <v>19</v>
       </c>
-      <c r="AB18" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
       <c r="AI18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,25 +3762,25 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR18" t="n">
         <v>19</v>
       </c>
-      <c r="AR18" t="n">
-        <v>16</v>
-      </c>
       <c r="AS18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV18" t="n">
         <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3722,16 +3789,16 @@
         <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
         <v>27</v>
       </c>
       <c r="BB18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-0.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3859,13 +3926,13 @@
         <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3886,22 +3953,22 @@
         <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
         <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>6</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -3942,85 +4009,85 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.313</v>
+        <v>0.267</v>
       </c>
       <c r="H20" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>34.4</v>
       </c>
       <c r="J20" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.444</v>
+        <v>0.439</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M20" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O20" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.798</v>
+        <v>0.791</v>
       </c>
       <c r="R20" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S20" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W20" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.1</v>
+        <v>-6.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4035,28 +4102,28 @@
         <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP20" t="n">
         <v>22</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>4</v>
@@ -4065,37 +4132,37 @@
         <v>19</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
       </c>
       <c r="AU20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX20" t="n">
         <v>14</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>18</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4214,7 +4281,7 @@
         <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4235,10 +4302,10 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP21" t="n">
         <v>23</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>22</v>
       </c>
       <c r="AQ21" t="n">
         <v>8</v>
@@ -4247,10 +4314,10 @@
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4453,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.412</v>
+        <v>0.375</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>84</v>
+        <v>83.5</v>
       </c>
       <c r="K23" t="n">
         <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M23" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="N23" t="n">
         <v>0.343</v>
@@ -4524,10 +4591,10 @@
         <v>13.3</v>
       </c>
       <c r="P23" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.782</v>
+        <v>0.777</v>
       </c>
       <c r="R23" t="n">
         <v>10.6</v>
@@ -4539,58 +4606,58 @@
         <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y23" t="n">
         <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.09999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.6</v>
+        <v>-4.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH23" t="n">
         <v>23</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR23" t="n">
         <v>21</v>
@@ -4617,31 +4684,31 @@
         <v>9</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY23" t="n">
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -4748,31 +4815,31 @@
         <v>-0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>22</v>
@@ -4787,19 +4854,19 @@
         <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR24" t="n">
         <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="BC24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>-4.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
         <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>2</v>
@@ -4960,13 +5027,13 @@
         <v>24</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -4981,7 +5048,7 @@
         <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -5002,10 +5069,10 @@
         <v>22</v>
       </c>
       <c r="BB25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -5034,121 +5101,121 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.444</v>
+        <v>0.412</v>
       </c>
       <c r="H26" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.2</v>
+        <v>22.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O26" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R26" t="n">
         <v>12.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="T26" t="n">
-        <v>39.8</v>
+        <v>39.4</v>
       </c>
       <c r="U26" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="V26" t="n">
         <v>15.4</v>
       </c>
       <c r="W26" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z26" t="n">
         <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.7</v>
+        <v>-4.2</v>
       </c>
       <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH26" t="n">
         <v>3</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AI26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>14</v>
       </c>
-      <c r="AF26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11</v>
-      </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>22</v>
@@ -5160,34 +5227,34 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
         <v>6</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>26</v>
@@ -5306,16 +5373,16 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
@@ -5324,7 +5391,7 @@
         <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5336,13 +5403,13 @@
         <v>21</v>
       </c>
       <c r="AR27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5351,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -5515,7 +5582,7 @@
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -5580,133 +5647,133 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
-        <v>0.222</v>
+        <v>0.235</v>
       </c>
       <c r="H29" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="J29" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K29" t="n">
-        <v>0.429</v>
+        <v>0.425</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O29" t="n">
         <v>17.6</v>
       </c>
       <c r="P29" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.765</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S29" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T29" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U29" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
         <v>6.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AA29" t="n">
         <v>20.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>96.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4.9</v>
+        <v>-5</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF29" t="n">
         <v>27</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>29</v>
       </c>
       <c r="AG29" t="n">
         <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK29" t="n">
         <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
         <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR29" t="n">
         <v>18</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>20</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>22</v>
@@ -5715,13 +5782,13 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY29" t="n">
         <v>22</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>23</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -5762,79 +5829,79 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>0.474</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
-        <v>83.3</v>
+        <v>83.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.445</v>
+        <v>0.439</v>
       </c>
       <c r="L30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.371</v>
+        <v>0.366</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="P30" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R30" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="S30" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.1</v>
@@ -5846,70 +5913,70 @@
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
         <v>16</v>
       </c>
       <c r="AM30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
         <v>14</v>
       </c>
       <c r="AR30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>8</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>16</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
@@ -6034,25 +6101,25 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
         <v>7</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6061,13 +6128,13 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6076,13 +6143,13 @@
         <v>26</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-3-2012-13</t>
+          <t>2012-12-03</t>
         </is>
       </c>
     </row>
